--- a/10семетр/СЕТИ/рассчет кабеля.xlsx
+++ b/10семетр/СЕТИ/рассчет кабеля.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>К(5.1)</t>
   </si>
@@ -152,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +169,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -205,19 +213,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -919,21 +964,21 @@
       </c>
     </row>
     <row r="23" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="4"/>
       <c r="T23" s="1">
         <f>S20+V20+V15+Y15+Y20</f>
         <v>897</v>
       </c>
     </row>
     <row r="24" spans="18:25" x14ac:dyDescent="0.25">
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="4">
+      <c r="S24" s="4"/>
+      <c r="T24" s="3">
         <v>986</v>
       </c>
     </row>
@@ -952,7 +997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
@@ -1196,4 +1241,129 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5">
+        <v>71250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>55020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>111984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>20470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>49996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>30210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>127281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>13750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>75960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>35499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>35799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>488405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>355283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>18981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>40598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>66481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>132810</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <f>SUM(A1:A20)</f>
+        <v>1763799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>